--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N2">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O2">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P2">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q2">
-        <v>118366.7664224542</v>
+        <v>80607.0255061668</v>
       </c>
       <c r="R2">
-        <v>1065300.897802088</v>
+        <v>725463.2295555013</v>
       </c>
       <c r="S2">
-        <v>0.206249301220062</v>
+        <v>0.1758348445012848</v>
       </c>
       <c r="T2">
-        <v>0.2244931852726172</v>
+        <v>0.1929124978780553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>227.639553</v>
       </c>
       <c r="O3">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P3">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q3">
-        <v>11512.95171088199</v>
+        <v>10986.13561068755</v>
       </c>
       <c r="R3">
-        <v>103616.5653979379</v>
+        <v>98875.22049618799</v>
       </c>
       <c r="S3">
-        <v>0.02006085252743102</v>
+        <v>0.02396497618718714</v>
       </c>
       <c r="T3">
-        <v>0.02183534516978602</v>
+        <v>0.02629253280810677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H4">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I4">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J4">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N4">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O4">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P4">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q4">
-        <v>225.741539125315</v>
+        <v>203.0567513406366</v>
       </c>
       <c r="R4">
-        <v>2031.673852127835</v>
+        <v>1827.51076206573</v>
       </c>
       <c r="S4">
-        <v>0.0003933454981338855</v>
+        <v>0.0004429446698065462</v>
       </c>
       <c r="T4">
-        <v>0.0004281390689149685</v>
+        <v>0.0004859649002819054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H5">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I5">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J5">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N5">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O5">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P5">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q5">
-        <v>24718.29456355618</v>
+        <v>19546.69392651453</v>
       </c>
       <c r="R5">
-        <v>148309.7673813371</v>
+        <v>117280.1635590872</v>
       </c>
       <c r="S5">
-        <v>0.04307062814312045</v>
+        <v>0.04263883781221955</v>
       </c>
       <c r="T5">
-        <v>0.03125364125306758</v>
+        <v>0.03118670717135151</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H6">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I6">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J6">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N6">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O6">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P6">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q6">
-        <v>172.0662665328711</v>
+        <v>56.40014341834333</v>
       </c>
       <c r="R6">
-        <v>1548.59639879584</v>
+        <v>507.60129076509</v>
       </c>
       <c r="S6">
-        <v>0.0002998185074118696</v>
+        <v>0.000123030348602255</v>
       </c>
       <c r="T6">
-        <v>0.0003263391019238292</v>
+        <v>0.0001349794571774737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H7">
         <v>246.746613</v>
       </c>
       <c r="I7">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J7">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N7">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O7">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P7">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q7">
-        <v>64165.19451947563</v>
+        <v>45791.44565425153</v>
       </c>
       <c r="R7">
-        <v>577486.7506752807</v>
+        <v>412123.0108882638</v>
       </c>
       <c r="S7">
-        <v>0.111805255244184</v>
+        <v>0.09988870914841484</v>
       </c>
       <c r="T7">
-        <v>0.1216950444511053</v>
+        <v>0.1095902262506022</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H8">
         <v>246.746613</v>
       </c>
       <c r="I8">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J8">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>227.639553</v>
       </c>
       <c r="O8">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P8">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q8">
-        <v>6241.032076398222</v>
+        <v>6241.032076398221</v>
       </c>
       <c r="R8">
-        <v>56169.288687584</v>
+        <v>56169.28868758399</v>
       </c>
       <c r="S8">
-        <v>0.01087474587296779</v>
+        <v>0.01361408509729783</v>
       </c>
       <c r="T8">
-        <v>0.01183667690320067</v>
+        <v>0.01493632942829452</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H9">
         <v>246.746613</v>
       </c>
       <c r="I9">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J9">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N9">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O9">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P9">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q9">
-        <v>122.371761997833</v>
+        <v>115.3529997584673</v>
       </c>
       <c r="R9">
-        <v>1101.345857980497</v>
+        <v>1038.176997826206</v>
       </c>
       <c r="S9">
-        <v>0.000213227843962906</v>
+        <v>0.0002516291433398085</v>
       </c>
       <c r="T9">
-        <v>0.0002320890184688256</v>
+        <v>0.0002760681861338523</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H10">
         <v>246.746613</v>
       </c>
       <c r="I10">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J10">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N10">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O10">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P10">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q10">
-        <v>13399.48895114368</v>
+        <v>11104.13598610957</v>
       </c>
       <c r="R10">
-        <v>80396.93370686205</v>
+        <v>66624.8159166574</v>
       </c>
       <c r="S10">
-        <v>0.02334806733687255</v>
+        <v>0.02422238027241586</v>
       </c>
       <c r="T10">
-        <v>0.01694222146178833</v>
+        <v>0.01771662454487598</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H11">
         <v>246.746613</v>
       </c>
       <c r="I11">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J11">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N11">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O11">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P11">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q11">
-        <v>93.27504498109866</v>
+        <v>32.03993803288867</v>
       </c>
       <c r="R11">
-        <v>839.475404829888</v>
+        <v>288.359442295998</v>
       </c>
       <c r="S11">
-        <v>0.0001625279918517063</v>
+        <v>6.989139577433947E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001769044858378529</v>
+        <v>7.667947600063458E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H12">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I12">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J12">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N12">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O12">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P12">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q12">
-        <v>96303.19265159994</v>
+        <v>91227.32675508611</v>
       </c>
       <c r="R12">
-        <v>866728.7338643994</v>
+        <v>821045.940795775</v>
       </c>
       <c r="S12">
-        <v>0.1678044166448192</v>
+        <v>0.199001795606777</v>
       </c>
       <c r="T12">
-        <v>0.1826476393983756</v>
+        <v>0.2183294988067114</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H13">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I13">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J13">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>227.639553</v>
       </c>
       <c r="O13">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P13">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q13">
-        <v>9366.936684276172</v>
+        <v>12433.60335948887</v>
       </c>
       <c r="R13">
-        <v>84302.43015848554</v>
+        <v>111902.4302353999</v>
       </c>
       <c r="S13">
-        <v>0.01632150817408862</v>
+        <v>0.02712245861421993</v>
       </c>
       <c r="T13">
-        <v>0.01776523526033555</v>
+        <v>0.02975668022287306</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H14">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I14">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J14">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N14">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O14">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P14">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q14">
-        <v>183.663300003183</v>
+        <v>229.8102986440224</v>
       </c>
       <c r="R14">
-        <v>1652.969700028647</v>
+        <v>2068.292687796202</v>
       </c>
       <c r="S14">
-        <v>0.0003200258690030514</v>
+        <v>0.000501304419473636</v>
       </c>
       <c r="T14">
-        <v>0.0003483339156891362</v>
+        <v>0.0005499927391084357</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H15">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I15">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J15">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N15">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O15">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P15">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q15">
-        <v>20110.80267984387</v>
+        <v>22122.04981660533</v>
       </c>
       <c r="R15">
-        <v>120664.8160790633</v>
+        <v>132732.2988996319</v>
       </c>
       <c r="S15">
-        <v>0.03504225996077819</v>
+        <v>0.04825667694753089</v>
       </c>
       <c r="T15">
-        <v>0.0254279602765865</v>
+        <v>0.03529568183009569</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H16">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I16">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J16">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N16">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O16">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P16">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q16">
-        <v>139.993102080832</v>
+        <v>63.8310901605629</v>
       </c>
       <c r="R16">
-        <v>1259.937918727488</v>
+        <v>574.479811445066</v>
       </c>
       <c r="S16">
-        <v>0.000243932316075529</v>
+        <v>0.0001392400940519931</v>
       </c>
       <c r="T16">
-        <v>0.0002655094698638217</v>
+        <v>0.0001527635459543347</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H17">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I17">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J17">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N17">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O17">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P17">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q17">
-        <v>39031.94080100737</v>
+        <v>31747.58075059343</v>
       </c>
       <c r="R17">
-        <v>234191.6448060443</v>
+        <v>190485.4845035606</v>
       </c>
       <c r="S17">
-        <v>0.06801157756340849</v>
+        <v>0.06925365238971019</v>
       </c>
       <c r="T17">
-        <v>0.04935171688601125</v>
+        <v>0.05065319526615945</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H18">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I18">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J18">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>227.639553</v>
       </c>
       <c r="O18">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P18">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q18">
-        <v>3796.444417685438</v>
+        <v>4326.958168312384</v>
       </c>
       <c r="R18">
-        <v>22778.66650611263</v>
+        <v>25961.74900987431</v>
       </c>
       <c r="S18">
-        <v>0.006615150788810338</v>
+        <v>0.00943875564085373</v>
       </c>
       <c r="T18">
-        <v>0.004800198151311348</v>
+        <v>0.006903652241405323</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H19">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I19">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J19">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N19">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O19">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P19">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q19">
-        <v>74.4392252806875</v>
+        <v>79.97517052216298</v>
       </c>
       <c r="R19">
-        <v>446.635351684125</v>
+        <v>479.851023132978</v>
       </c>
       <c r="S19">
-        <v>0.0001297073381451442</v>
+        <v>0.0001744565263936259</v>
       </c>
       <c r="T19">
-        <v>9.412044330554238E-05</v>
+        <v>0.0001276002086813433</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H20">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I20">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J20">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N20">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O20">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P20">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q20">
-        <v>8150.96195720325</v>
+        <v>7698.587560356988</v>
       </c>
       <c r="R20">
-        <v>32603.847828813</v>
+        <v>30794.35024142795</v>
       </c>
       <c r="S20">
-        <v>0.01420272141205987</v>
+        <v>0.01679357274449153</v>
       </c>
       <c r="T20">
-        <v>0.006870680073897511</v>
+        <v>0.00818871968086575</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H21">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I21">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J21">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N21">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O21">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P21">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q21">
-        <v>56.739577604</v>
+        <v>22.213548958979</v>
       </c>
       <c r="R21">
-        <v>340.437465624</v>
+        <v>133.281293753874</v>
       </c>
       <c r="S21">
-        <v>9.886641821894457E-05</v>
+        <v>4.845627167727371E-05</v>
       </c>
       <c r="T21">
-        <v>7.17411307938908E-05</v>
+        <v>3.544166851052183E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H22">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I22">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J22">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>780.134654</v>
+        <v>556.7425436666666</v>
       </c>
       <c r="N22">
-        <v>2340.403962</v>
+        <v>1670.227631</v>
       </c>
       <c r="O22">
-        <v>0.7636771497364756</v>
+        <v>0.7235863858022448</v>
       </c>
       <c r="P22">
-        <v>0.8065527316666548</v>
+        <v>0.7685368570853349</v>
       </c>
       <c r="Q22">
-        <v>120408.3046991801</v>
+        <v>82336.45064393066</v>
       </c>
       <c r="R22">
-        <v>1083674.742292621</v>
+        <v>741028.055795376</v>
       </c>
       <c r="S22">
-        <v>0.2098065990640018</v>
+        <v>0.1796073841560579</v>
       </c>
       <c r="T22">
-        <v>0.2283651456585454</v>
+        <v>0.1970514388838067</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H23">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I23">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J23">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>227.639553</v>
       </c>
       <c r="O23">
-        <v>0.0742791107111984</v>
+        <v>0.0986194207087145</v>
       </c>
       <c r="P23">
-        <v>0.07844940714876736</v>
+        <v>0.1047458342586422</v>
       </c>
       <c r="Q23">
-        <v>11711.52207236314</v>
+        <v>11221.84334177797</v>
       </c>
       <c r="R23">
-        <v>105403.6986512683</v>
+        <v>100996.5900760017</v>
       </c>
       <c r="S23">
-        <v>0.02040685334790062</v>
+        <v>0.02447914516915587</v>
       </c>
       <c r="T23">
-        <v>0.02221195166413377</v>
+        <v>0.02685663955796249</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H24">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I24">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J24">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.487823</v>
+        <v>1.402487333333333</v>
       </c>
       <c r="N24">
-        <v>4.463469</v>
+        <v>4.207462</v>
       </c>
       <c r="O24">
-        <v>0.001456436298691036</v>
+        <v>0.001822782814434402</v>
       </c>
       <c r="P24">
-        <v>0.001538205870914276</v>
+        <v>0.001936017319896666</v>
       </c>
       <c r="Q24">
-        <v>229.63503057313</v>
+        <v>207.4133374813111</v>
       </c>
       <c r="R24">
-        <v>2066.71527515817</v>
+        <v>1866.7200373318</v>
       </c>
       <c r="S24">
-        <v>0.0004001297494460493</v>
+        <v>0.0004524480554207858</v>
       </c>
       <c r="T24">
-        <v>0.0004355234245358033</v>
+        <v>0.0004963912856911292</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H25">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I25">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J25">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>162.913956</v>
+        <v>135.006546</v>
       </c>
       <c r="N25">
-        <v>325.827912</v>
+        <v>270.013092</v>
       </c>
       <c r="O25">
-        <v>0.1594771683740299</v>
+        <v>0.1754651225976237</v>
       </c>
       <c r="P25">
-        <v>0.1122871934690574</v>
+        <v>0.1242435517446983</v>
       </c>
       <c r="Q25">
-        <v>25144.62490958236</v>
+        <v>19966.0685855398</v>
       </c>
       <c r="R25">
-        <v>150867.7494574942</v>
+        <v>119796.4115132388</v>
       </c>
       <c r="S25">
-        <v>0.04381349152119889</v>
+        <v>0.04355365482096585</v>
       </c>
       <c r="T25">
-        <v>0.03179269040371745</v>
+        <v>0.03185581851750941</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H26">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I26">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J26">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>1.134058666666667</v>
+        <v>0.3895486666666667</v>
       </c>
       <c r="N26">
-        <v>3.402176</v>
+        <v>1.168646</v>
       </c>
       <c r="O26">
-        <v>0.001110134879604961</v>
+        <v>0.0005062880769826339</v>
       </c>
       <c r="P26">
-        <v>0.001172461844606437</v>
+        <v>0.0005377395914277917</v>
       </c>
       <c r="Q26">
-        <v>175.0339903279644</v>
+        <v>57.61020947882223</v>
       </c>
       <c r="R26">
-        <v>1575.30591295168</v>
+        <v>518.4918853094</v>
       </c>
       <c r="S26">
-        <v>0.0003049896460469115</v>
+        <v>0.0001256699668767727</v>
       </c>
       <c r="T26">
-        <v>0.0003319676561870422</v>
+        <v>0.0001378754437848269</v>
       </c>
     </row>
   </sheetData>
